--- a/biology/Zoologie/La_Ballade_des_Dalton/La_Ballade_des_Dalton.xlsx
+++ b/biology/Zoologie/La_Ballade_des_Dalton/La_Ballade_des_Dalton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Ballade des Dalton est un film d'animation français réalisé par René Goscinny et Morris, sorti le 24 octobre 1978.
 Il s’agit du deuxième film après Lucky Luke Daisy Town et aussi le second et dernier film des Studios Idéfix après Les Douze Travaux d’Astérix, en 1976.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'oncle Henry des Dalton est mort pendu (comme affirme Joe : « Mort naturelle, c'est une consolation »), laissant à ses neveux tout son magot. Cependant, pour le toucher, les Dalton ont pour instruction de tuer les membres du jury et le juge qui l'ont condamné. Pour s'assurer que ce travail est bien fait, il demande qu'ils soient surveillés par Lucky Luke, le seul homme digne de confiance qu'il ait connu. Cependant, si les Dalton échouent, tout le magot d'Henry Dalton ira aux bonnes œuvres.
 Après s'être évadés de façon explosive et flanqués de Rantanplan, les Dalton capturent Lucky Luke. Joe lui promet une part de l'héritage s'il accepte de témoigner en leur faveur (mais il a pour projet de le tuer à la fin), ce que Lucky Luke feint d'accepter. Celui-ci s'assure en fait de la survie de chacune des cibles tout en persuadant les Dalton de leur réussite.
@@ -553,7 +567,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Titre : La Ballade des Dalton
@@ -565,7 +581,7 @@
 Photographie : Claude Pointis
 Sociétés de production : Dargaud Films, Productions René Goscinny, Studios Idéfix
 Société de distribution  : United Artists
-Budget : 12 millions de francs[1]
+Budget : 12 millions de francs
 Pays d'origine :  France
 Langue originale : français
 Genre : western, animation, comédie
@@ -602,7 +618,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Certains comédiens interprètent les voix de plusieurs personnages secondaires.
 Daniel Ceccaldi : Lucky Luke
@@ -659,11 +677,13 @@
           <t>Bande dessinée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Plusieurs ouvrages sont parus en relation avec ce film.
 En 1978, sort un livre grand format de 60 pages avec l'histoire du film sous forme d'un texte rédigé par Guy Vidal et agrémenté des images du film. Cet ouvrage sera réédité en 1981 au format album venant intégrer la série standard (T17 La Ballade des Dalton).
-En 1978 toujours, La Ballade des Dalton est adapté dans la collection 16/22, sous forme de bande dessinée par le studio Dargaud[2]. Les dessins sont de Pascal Dabère (non crédité). Cette BD sera rééditée au format album en 1986 venant intégrer elle aussi la série standard (T25 La Ballade des Dalton et autres histoires)</t>
+En 1978 toujours, La Ballade des Dalton est adapté dans la collection 16/22, sous forme de bande dessinée par le studio Dargaud. Les dessins sont de Pascal Dabère (non crédité). Cette BD sera rééditée au format album en 1986 venant intégrer elle aussi la série standard (T25 La Ballade des Dalton et autres histoires)</t>
         </is>
       </c>
     </row>
